--- a/AlgoDs.xlsx
+++ b/AlgoDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUN\Desktop\TopicsAlGoDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6DD90-6C80-43D1-A56C-C92CE335D001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB12C0-F318-4FA5-AED4-35E71224EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{030A3091-96FF-4395-AB41-93B5B5BF05AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{030A3091-96FF-4395-AB41-93B5B5BF05AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>List of algorithms and datastructures</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>(17)Array Permutation algorithm</t>
+  </si>
+  <si>
+    <t>(18)Kth smallest element in an unsorted array in O(N) time &amp; quick select algorithm</t>
+  </si>
+  <si>
+    <t>(19)Self Balancing trees(Avl tree And red black tree)</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C2889-4FA1-40F1-BECA-2E024767759A}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +551,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AlgoDs.xlsx
+++ b/AlgoDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUN\Desktop\TopicsAlGoDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB12C0-F318-4FA5-AED4-35E71224EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0699B-23AD-4BB0-993C-E7C678C10B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{030A3091-96FF-4395-AB41-93B5B5BF05AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>List of algorithms and datastructures</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>(19)Self Balancing trees(Avl tree And red black tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 20)quick  sort (randomized sort, finding median in O(N) time)       </t>
+  </si>
+  <si>
+    <t>(21)search one pair linearly and swap them to sort the array.</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C2889-4FA1-40F1-BECA-2E024767759A}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,8 +568,13 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-20</v>
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/AlgoDs.xlsx
+++ b/AlgoDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUN\Desktop\TopicsAlGoDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0699B-23AD-4BB0-993C-E7C678C10B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB12C0-F318-4FA5-AED4-35E71224EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{030A3091-96FF-4395-AB41-93B5B5BF05AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>List of algorithms and datastructures</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>(19)Self Balancing trees(Avl tree And red black tree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">( 20)quick  sort (randomized sort, finding median in O(N) time)       </t>
-  </si>
-  <si>
-    <t>(21)search one pair linearly and swap them to sort the array.</t>
   </si>
 </sst>
 </file>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C2889-4FA1-40F1-BECA-2E024767759A}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,13 +562,8 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A21">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
